--- a/Data/untreated_emaillist.xlsx
+++ b/Data/untreated_emaillist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0C36DC-D4BD-194C-8099-6983E6117B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91762D5-21FD-8A4B-B538-BED4A9D437C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41080" yWindow="2920" windowWidth="27240" windowHeight="16440" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
+    <workbookView xWindow="37200" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,59 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Cal State Northridge</t>
-  </si>
-  <si>
-    <t>Penn state</t>
-  </si>
-  <si>
-    <t>University of albany</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Texas Tech University</t>
   </si>
   <si>
-    <t>University of Nebraska</t>
-  </si>
-  <si>
-    <t>University of South Carolina</t>
-  </si>
-  <si>
     <t>Ferrum College</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Hampden Sydney College</t>
-  </si>
-  <si>
     <t>University of Kentucky</t>
   </si>
   <si>
-    <t>Texas A &amp;M</t>
-  </si>
-  <si>
-    <t>Texas Christian</t>
-  </si>
-  <si>
-    <t>UC Riverside</t>
-  </si>
-  <si>
-    <t>UC Santa Cruz</t>
-  </si>
-  <si>
     <t>Delaware State University</t>
   </si>
   <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
-    <t>Cal State Fullerton</t>
-  </si>
-  <si>
     <t>Cornell</t>
   </si>
   <si>
@@ -105,14 +66,56 @@
     <t>University of Louisiana, Lafayette</t>
   </si>
   <si>
-    <t>University of Nevada, Reno</t>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Monday/Tuesday - James</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t>University of Nevada-Reno</t>
+  </si>
+  <si>
+    <t>Hampden-Sydney College</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>University of South Carolina-Columbia</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University-College Station</t>
+  </si>
+  <si>
+    <t>University of California-Riverside</t>
+  </si>
+  <si>
+    <t>University of California-Santa Cruz</t>
+  </si>
+  <si>
+    <t>University of California-Irvine</t>
+  </si>
+  <si>
+    <t>California State University-Fullerton</t>
+  </si>
+  <si>
+    <t>SUNY at Albany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +127,12 @@
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -147,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A799A-569E-D74F-8C2B-B387A94D3A71}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,82 +488,97 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
+      <c r="A9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -561,92 +586,94 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
+      <c r="A12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/untreated_emaillist.xlsx
+++ b/Data/untreated_emaillist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91762D5-21FD-8A4B-B538-BED4A9D437C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B0A99-B98D-CD4E-A265-581D7B375682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37200" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>University of Louisiana, Lafayette</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Monday/Tuesday - James</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>SUNY at Albany</t>
+  </si>
+  <si>
+    <t>cleaned</t>
   </si>
 </sst>
 </file>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A799A-569E-D74F-8C2B-B387A94D3A71}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -496,13 +496,16 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,48 +516,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -562,9 +574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -572,10 +584,13 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -583,49 +598,58 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -633,14 +657,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -651,13 +675,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/Data/untreated_emaillist.xlsx
+++ b/Data/untreated_emaillist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B0A99-B98D-CD4E-A265-581D7B375682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907F87E-AF32-9A4E-93CA-AFA87967A6E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37200" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
+    <workbookView xWindow="37680" yWindow="1320" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Texas Tech University</t>
   </si>
@@ -63,15 +63,9 @@
     <t>Acquafondata</t>
   </si>
   <si>
-    <t>University of Louisiana, Lafayette</t>
-  </si>
-  <si>
     <t>Monday/Tuesday - James</t>
   </si>
   <si>
-    <t>Soon</t>
-  </si>
-  <si>
     <t>University of Nebraska-Lincoln</t>
   </si>
   <si>
@@ -109,6 +103,15 @@
   </si>
   <si>
     <t>cleaned</t>
+  </si>
+  <si>
+    <t>too hard to do probably</t>
+  </si>
+  <si>
+    <t>asked about format</t>
+  </si>
+  <si>
+    <t>University of Louisiana at Lafayette</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,12 +500,12 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,10 +518,13 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,7 +535,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -549,12 +555,12 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -567,16 +573,19 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -590,7 +599,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -615,18 +624,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -640,7 +652,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -648,13 +660,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,7 +679,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -675,13 +690,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/Data/untreated_emaillist.xlsx
+++ b/Data/untreated_emaillist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907F87E-AF32-9A4E-93CA-AFA87967A6E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A540E5-12BC-D84A-B075-FADC985191A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="1320" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
+    <workbookView xWindow="2160" yWindow="2080" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Texas Tech University</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Acquafondata</t>
   </si>
   <si>
-    <t>Monday/Tuesday - James</t>
-  </si>
-  <si>
     <t>University of Nebraska-Lincoln</t>
   </si>
   <si>
@@ -112,6 +109,30 @@
   </si>
   <si>
     <t>University of Louisiana at Lafayette</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>do not clean - this is a sorority death</t>
+  </si>
+  <si>
+    <t>Bloomsburg University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>just one more month</t>
+  </si>
+  <si>
+    <t>only back to sep 2015</t>
+  </si>
+  <si>
+    <t>they pulled some bullshit on me</t>
+  </si>
+  <si>
+    <t>only have 2017 onwards - do not use</t>
+  </si>
+  <si>
+    <t>missing jan/feb 2016</t>
   </si>
 </sst>
 </file>
@@ -477,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A799A-569E-D74F-8C2B-B387A94D3A71}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,7 +510,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -500,15 +521,24 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,89 +548,104 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -611,10 +656,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -622,84 +670,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -709,8 +787,45 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>

--- a/Data/untreated_emaillist.xlsx
+++ b/Data/untreated_emaillist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A540E5-12BC-D84A-B075-FADC985191A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050B804-D993-9043-BCDB-D00926DD5AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2080" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
+    <workbookView xWindow="37740" yWindow="1200" windowWidth="35840" windowHeight="21100" xr2:uid="{C7500667-11D6-1645-BDDB-0190EEB635C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
